--- a/(!for Ast) Marking Template.xlsx
+++ b/(!for Ast) Marking Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="611" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="611" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="15" r:id="rId1"/>
@@ -2996,7 +2996,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="228">
   <si>
     <t>Component Name</t>
   </si>
@@ -4844,11 +4844,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="163315712"/>
-        <c:axId val="163317248"/>
+        <c:axId val="128601472"/>
+        <c:axId val="128873600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="163315712"/>
+        <c:axId val="128601472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4893,7 +4893,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163317248"/>
+        <c:crossAx val="128873600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4901,7 +4901,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163317248"/>
+        <c:axId val="128873600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4963,7 +4963,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163315712"/>
+        <c:crossAx val="128601472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5070,7 +5070,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FFF3894-98E8-4C22-9B79-81EDB5203263}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FFF3894-98E8-4C22-9B79-81EDB5203263}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5380,7 +5380,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6237,8 +6237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6556,14 +6556,18 @@
       <c r="A36" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -7431,7 +7435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18:G18"/>
     </sheetView>
   </sheetViews>

--- a/(!for Ast) Marking Template.xlsx
+++ b/(!for Ast) Marking Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="611" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="611" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="15" r:id="rId1"/>
@@ -2996,7 +2996,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="228">
   <si>
     <t>Component Name</t>
   </si>
@@ -4844,11 +4844,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="128601472"/>
-        <c:axId val="128873600"/>
+        <c:axId val="207895936"/>
+        <c:axId val="208213120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="128601472"/>
+        <c:axId val="207895936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4893,7 +4893,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128873600"/>
+        <c:crossAx val="208213120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4901,7 +4901,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128873600"/>
+        <c:axId val="208213120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4963,7 +4963,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128601472"/>
+        <c:crossAx val="207895936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5070,7 +5070,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FFF3894-98E8-4C22-9B79-81EDB5203263}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FFF3894-98E8-4C22-9B79-81EDB5203263}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5380,7 +5380,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5545,8 +5545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5766,7 +5766,7 @@
         <v>72</v>
       </c>
       <c r="B25" s="93" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C25" s="3"/>
     </row>
@@ -6237,8 +6237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6969,7 +6969,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8445,8 +8445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8586,7 +8586,9 @@
       <c r="A16" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="28"/>
+      <c r="B16" s="28" t="s">
+        <v>225</v>
+      </c>
       <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
